--- a/experiments/00_general/results/statistics/stats_cortisol_features_weekend.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_features_weekend.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>parameter</t>
   </si>
@@ -152,25 +152,22 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.219</t>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>0.356</t>
   </si>
   <si>
     <t>0.21</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.241</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -616,10 +613,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.9826</v>
+        <v>0.9827</v>
       </c>
       <c r="D3">
-        <v>0.1112</v>
+        <v>0.1106</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -631,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.9667</v>
+        <v>0.9644</v>
       </c>
       <c r="D4">
-        <v>0.2549</v>
+        <v>0.19</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -648,10 +645,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.9908</v>
+        <v>0.9898</v>
       </c>
       <c r="D5">
-        <v>0.5865</v>
+        <v>0.4837</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -663,10 +660,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0.969</v>
+        <v>0.975</v>
       </c>
       <c r="D6">
-        <v>0.3063</v>
+        <v>0.448</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -680,10 +677,10 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.9514</v>
+        <v>0.9566</v>
       </c>
       <c r="D7">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -695,10 +692,10 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.9567</v>
+        <v>0.954</v>
       </c>
       <c r="D8">
-        <v>0.1121</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -712,10 +709,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.9704</v>
+        <v>0.9673</v>
       </c>
       <c r="D9">
-        <v>0.007900000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -727,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0.9577</v>
+        <v>0.9651999999999999</v>
       </c>
       <c r="D10">
-        <v>0.1218</v>
+        <v>0.2036</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -744,10 +741,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0.9777</v>
+        <v>0.9778</v>
       </c>
       <c r="D11">
-        <v>0.0378</v>
+        <v>0.037</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -759,10 +756,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>0.9709</v>
+        <v>0.9723000000000001</v>
       </c>
       <c r="D12">
-        <v>0.3538</v>
+        <v>0.3637</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -776,10 +773,10 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.9671999999999999</v>
+        <v>0.9641999999999999</v>
       </c>
       <c r="D13">
-        <v>0.0041</v>
+        <v>0.0022</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -791,10 +788,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.9519</v>
+        <v>0.9549</v>
       </c>
       <c r="D14">
-        <v>0.0757</v>
+        <v>0.0835</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -808,10 +805,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.9572000000000001</v>
+        <v>0.9529</v>
       </c>
       <c r="D15">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -823,10 +820,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.9295</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D16">
-        <v>0.0125</v>
+        <v>0.0144</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -882,10 +879,10 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>2.0107</v>
+        <v>1.9311</v>
       </c>
       <c r="D3">
-        <v>0.1581</v>
+        <v>0.1665</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -899,10 +896,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>7.065</v>
+        <v>6.2729</v>
       </c>
       <c r="D4">
-        <v>0.0086</v>
+        <v>0.0132</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -916,10 +913,10 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>4.5907</v>
+        <v>4.7792</v>
       </c>
       <c r="D5">
-        <v>0.0336</v>
+        <v>0.0302</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -933,10 +930,10 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>9.8238</v>
+        <v>9.2033</v>
       </c>
       <c r="D6">
-        <v>0.002</v>
+        <v>0.0028</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -950,13 +947,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>3.61</v>
+        <v>4.0105</v>
       </c>
       <c r="D7">
-        <v>0.0592</v>
+        <v>0.0468</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -967,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>7.3608</v>
+        <v>6.7598</v>
       </c>
       <c r="D8">
-        <v>0.0074</v>
+        <v>0.0102</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -984,10 +981,10 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>6.1299</v>
+        <v>6.2213</v>
       </c>
       <c r="D9">
-        <v>0.0143</v>
+        <v>0.0136</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1049,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F3">
-        <v>0.031</v>
+        <v>0.0264</v>
       </c>
       <c r="G3">
-        <v>0.8605</v>
+        <v>0.871</v>
       </c>
       <c r="H3">
         <v>0.0002</v>
@@ -1075,16 +1072,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F4">
-        <v>0.2083</v>
+        <v>0.0284</v>
       </c>
       <c r="G4">
-        <v>0.6487000000000001</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="H4">
-        <v>0.0013</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1101,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F5">
-        <v>0.1585</v>
+        <v>0.0043</v>
       </c>
       <c r="G5">
-        <v>0.6909999999999999</v>
+        <v>0.9479</v>
       </c>
       <c r="H5">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1127,16 +1124,16 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F6">
-        <v>1.1104</v>
+        <v>0.6427</v>
       </c>
       <c r="G6">
-        <v>0.2935</v>
+        <v>0.4239</v>
       </c>
       <c r="H6">
-        <v>0.0067</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1153,16 +1150,16 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F7">
-        <v>1.1556</v>
+        <v>1.0067</v>
       </c>
       <c r="G7">
-        <v>0.284</v>
+        <v>0.3172</v>
       </c>
       <c r="H7">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1179,16 +1176,16 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F8">
-        <v>0.478</v>
+        <v>0.1694</v>
       </c>
       <c r="G8">
-        <v>0.4903</v>
+        <v>0.6812</v>
       </c>
       <c r="H8">
-        <v>0.0029</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1205,16 +1202,16 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F9">
-        <v>0.3635</v>
+        <v>0.1779</v>
       </c>
       <c r="G9">
-        <v>0.5474</v>
+        <v>0.6737</v>
       </c>
       <c r="H9">
-        <v>0.0022</v>
+        <v>0.0011</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1300,25 +1297,25 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.2026</v>
+        <v>0.1866</v>
       </c>
       <c r="I3">
-        <v>94.0779</v>
+        <v>100.4611</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>0.8399</v>
+        <v>0.8524</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3">
-        <v>0.0313</v>
+        <v>0.0284</v>
       </c>
       <c r="N3">
-        <v>0.8399</v>
+        <v>0.8524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1344,25 +1341,25 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.5531</v>
+        <v>0.201</v>
       </c>
       <c r="I4">
-        <v>106.3903</v>
+        <v>110.3325</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>0.5814</v>
+        <v>0.8411</v>
       </c>
       <c r="L4" t="s">
         <v>45</v>
       </c>
       <c r="M4">
-        <v>0.08110000000000001</v>
+        <v>0.0294</v>
       </c>
       <c r="N4">
-        <v>0.5814</v>
+        <v>0.8411</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1388,25 +1385,25 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-0.4597</v>
+        <v>-0.075</v>
       </c>
       <c r="I5">
-        <v>94.7239</v>
+        <v>100.3238</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>0.6468</v>
+        <v>0.9404</v>
       </c>
       <c r="L5" t="s">
         <v>46</v>
       </c>
       <c r="M5">
-        <v>-0.0708</v>
+        <v>-0.0114</v>
       </c>
       <c r="N5">
-        <v>0.6468</v>
+        <v>0.9404</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1432,25 +1429,25 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1.3266</v>
+        <v>0.9962</v>
       </c>
       <c r="I6">
-        <v>116.9806</v>
+        <v>122.1799</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>0.1872</v>
+        <v>0.3211</v>
       </c>
       <c r="L6" t="s">
         <v>47</v>
       </c>
       <c r="M6">
-        <v>0.1873</v>
+        <v>0.1399</v>
       </c>
       <c r="N6">
-        <v>0.1872</v>
+        <v>0.3211</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1476,25 +1473,25 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1.2766</v>
+        <v>1.1896</v>
       </c>
       <c r="I7">
-        <v>101.2228</v>
+        <v>108.729</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
       </c>
       <c r="K7">
-        <v>0.2047</v>
+        <v>0.2368</v>
       </c>
       <c r="L7" t="s">
         <v>48</v>
       </c>
       <c r="M7">
-        <v>0.191</v>
+        <v>0.1751</v>
       </c>
       <c r="N7">
-        <v>0.2047</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1520,25 +1517,25 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.8584000000000001</v>
+        <v>0.502</v>
       </c>
       <c r="I8">
-        <v>112.9644</v>
+        <v>116.6227</v>
       </c>
       <c r="J8" t="s">
         <v>43</v>
       </c>
       <c r="K8">
-        <v>0.3925</v>
+        <v>0.6166</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
       </c>
       <c r="M8">
-        <v>0.1229</v>
+        <v>0.0718</v>
       </c>
       <c r="N8">
-        <v>0.3925</v>
+        <v>0.6166</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1564,25 +1561,25 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.721</v>
+        <v>0.5034</v>
       </c>
       <c r="I9">
-        <v>102.9813</v>
+        <v>110.5128</v>
       </c>
       <c r="J9" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.4725</v>
+        <v>0.6157</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>0.1071</v>
+        <v>0.0736</v>
       </c>
       <c r="N9">
-        <v>0.4725</v>
+        <v>0.6157</v>
       </c>
     </row>
   </sheetData>
